--- a/Statistical Normalisation/Actual Data Models/Models/Text Results/StandardModels.csv.xlsx
+++ b/Statistical Normalisation/Actual Data Models/Models/Text Results/StandardModels.csv.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nia Touko\Documents\GitHub\Towards-adaptable-prosthetics-through-Spiking-Networks\Statistical Normalisation\Actual Data Models\Models\Text Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{202D6303-91A7-402F-A8F0-85B362B6B950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1956CB6-E882-441B-890C-15F101C07754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06B0749D-F611-408F-8B38-E9D14456DB04}"/>
+    <workbookView xWindow="3720" yWindow="2520" windowWidth="21600" windowHeight="11295" xr2:uid="{06B0749D-F611-408F-8B38-E9D14456DB04}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardModels" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -898,7 +911,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G9" sqref="G9:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
